--- a/packages/calc/equalto_xlsx/tests/calc_tests/XIRR.xlsx
+++ b/packages/calc/equalto_xlsx/tests/calc_tests/XIRR.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5BC6E58-2F77-ED41-8281-B8A4F660C6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F8846D-0DC6-CB4C-A388-A648353F7F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{0D0410B1-79BF-1546-8829-FDCC0ADAEEBA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{0D0410B1-79BF-1546-8829-FDCC0ADAEEBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="METADATA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -156,13 +157,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -480,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061B71AF-D050-DC48-AF5C-473479EBCC11}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -1515,4 +1517,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB536BE7-E2D6-0F41-BD2C-792436DD3EF2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <v>4.9999999999999998E-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>